--- a/artfynd/A 56568-2020.xlsx
+++ b/artfynd/A 56568-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815503</v>
+        <v>111815494</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>89419</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>457482.2929676044</v>
+        <v>457558.4152710024</v>
       </c>
       <c r="R2" t="n">
-        <v>7057720.548935141</v>
+        <v>7057456.868363639</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815486</v>
+        <v>111815472</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,42 +804,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>457490.629824138</v>
+        <v>457859.1684109565</v>
       </c>
       <c r="R3" t="n">
-        <v>7057910.64054891</v>
+        <v>7058252.317324108</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -882,11 +878,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815494</v>
+        <v>111815486</v>
       </c>
       <c r="B4" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,34 +920,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>457558.4152710024</v>
+        <v>457490.629824138</v>
       </c>
       <c r="R4" t="n">
-        <v>7057456.868363639</v>
+        <v>7057910.64054891</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -999,6 +994,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815489</v>
+        <v>111815476</v>
       </c>
       <c r="B5" t="n">
-        <v>56414</v>
+        <v>90087</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,42 +1037,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>3298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>457851.1019836199</v>
+        <v>457561.367873844</v>
       </c>
       <c r="R5" t="n">
-        <v>7058247.981310523</v>
+        <v>7058241.631711838</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1115,11 +1111,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1146,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815475</v>
+        <v>111815498</v>
       </c>
       <c r="B6" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,25 +1149,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1186,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>457550.3597693135</v>
+        <v>457525.8934188869</v>
       </c>
       <c r="R6" t="n">
-        <v>7058250.221744461</v>
+        <v>7057587.081301005</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1370,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815472</v>
+        <v>111815490</v>
       </c>
       <c r="B8" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1382,38 +1373,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>457859.1684109565</v>
+        <v>457486.844484477</v>
       </c>
       <c r="R8" t="n">
-        <v>7058252.317324108</v>
+        <v>7058059.55768314</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1456,6 +1451,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1482,10 +1482,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815505</v>
+        <v>111815495</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1498,21 +1498,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>457627.5754243882</v>
+        <v>457740.1420321366</v>
       </c>
       <c r="R9" t="n">
-        <v>7057503.498196352</v>
+        <v>7057634.880048735</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1594,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815483</v>
+        <v>111815469</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1606,54 +1606,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>457815.3956129756</v>
+        <v>457736.9978307564</v>
       </c>
       <c r="R10" t="n">
-        <v>7058239.570048946</v>
+        <v>7057632.69988044</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1843,10 +1827,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815499</v>
+        <v>111815480</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1855,25 +1839,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1883,10 +1867,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>457639.6605191349</v>
+        <v>457650.8748659134</v>
       </c>
       <c r="R12" t="n">
-        <v>7057508.669857187</v>
+        <v>7057581.852142417</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1955,10 +1939,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815492</v>
+        <v>111815503</v>
       </c>
       <c r="B13" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1971,21 +1955,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1995,10 +1979,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>457652.3413775756</v>
+        <v>457482.2929676044</v>
       </c>
       <c r="R13" t="n">
-        <v>7058423.476722932</v>
+        <v>7057720.548935141</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2067,10 +2051,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111815506</v>
+        <v>111815478</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2079,25 +2063,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2107,10 +2091,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>457558.4688635201</v>
+        <v>457490.7608241383</v>
       </c>
       <c r="R14" t="n">
-        <v>7057460.867698954</v>
+        <v>7057588.885967719</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2179,10 +2163,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111815469</v>
+        <v>111815492</v>
       </c>
       <c r="B15" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2191,25 +2175,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2219,10 +2203,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>457736.9978307564</v>
+        <v>457652.3413775756</v>
       </c>
       <c r="R15" t="n">
-        <v>7057632.69988044</v>
+        <v>7058423.476722932</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2291,10 +2275,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111815504</v>
+        <v>111815485</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2307,34 +2291,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>457647.6599703166</v>
+        <v>457446.9368417656</v>
       </c>
       <c r="R16" t="n">
-        <v>7057607.672130827</v>
+        <v>7058136.079544679</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2377,6 +2365,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2403,10 +2396,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111815482</v>
+        <v>111815504</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2419,38 +2412,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>457734.0897740572</v>
+        <v>457647.6599703166</v>
       </c>
       <c r="R17" t="n">
-        <v>7057881.607121572</v>
+        <v>7057607.672130827</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2493,11 +2482,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2636,10 +2620,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111815485</v>
+        <v>111815489</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2652,16 +2636,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2680,10 +2664,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>457446.9368417656</v>
+        <v>457851.1019836199</v>
       </c>
       <c r="R19" t="n">
-        <v>7058136.079544679</v>
+        <v>7058247.981310523</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2730,7 +2714,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2757,7 +2741,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111815480</v>
+        <v>111815475</v>
       </c>
       <c r="B20" t="n">
         <v>90087</v>
@@ -2797,10 +2781,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>457650.8748659134</v>
+        <v>457550.3597693135</v>
       </c>
       <c r="R20" t="n">
-        <v>7057581.852142417</v>
+        <v>7058250.221744461</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2869,10 +2853,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111815478</v>
+        <v>111815506</v>
       </c>
       <c r="B21" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2881,25 +2865,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2909,10 +2893,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>457490.7608241383</v>
+        <v>457558.4688635201</v>
       </c>
       <c r="R21" t="n">
-        <v>7057588.885967719</v>
+        <v>7057460.867698954</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2981,7 +2965,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111815476</v>
+        <v>111815471</v>
       </c>
       <c r="B22" t="n">
         <v>90087</v>
@@ -3021,10 +3005,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>457561.367873844</v>
+        <v>457690.9089585465</v>
       </c>
       <c r="R22" t="n">
-        <v>7058241.631711838</v>
+        <v>7058279.888449568</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3093,10 +3077,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111815490</v>
+        <v>111815482</v>
       </c>
       <c r="B23" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3109,16 +3093,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3137,10 +3121,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>457486.844484477</v>
+        <v>457734.0897740572</v>
       </c>
       <c r="R23" t="n">
-        <v>7058059.55768314</v>
+        <v>7057881.607121572</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3187,7 +3171,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3214,10 +3198,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111815498</v>
+        <v>111815470</v>
       </c>
       <c r="B24" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3226,25 +3210,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3254,10 +3238,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>457525.8934188869</v>
+        <v>457615.01761246</v>
       </c>
       <c r="R24" t="n">
-        <v>7057587.081301005</v>
+        <v>7058260.908339346</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3326,10 +3310,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111815470</v>
+        <v>111815505</v>
       </c>
       <c r="B25" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3338,25 +3322,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3366,10 +3350,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>457615.01761246</v>
+        <v>457627.5754243882</v>
       </c>
       <c r="R25" t="n">
-        <v>7058260.908339346</v>
+        <v>7057503.498196352</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3438,7 +3422,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111815495</v>
+        <v>111815499</v>
       </c>
       <c r="B26" t="n">
         <v>89423</v>
@@ -3478,10 +3462,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>457740.1420321366</v>
+        <v>457639.6605191349</v>
       </c>
       <c r="R26" t="n">
-        <v>7057634.880048735</v>
+        <v>7057508.669857187</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3550,10 +3534,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111815471</v>
+        <v>111815483</v>
       </c>
       <c r="B27" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3562,38 +3546,54 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>457690.9089585465</v>
+        <v>457815.3956129756</v>
       </c>
       <c r="R27" t="n">
-        <v>7058279.888449568</v>
+        <v>7058239.570048946</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>

--- a/artfynd/A 56568-2020.xlsx
+++ b/artfynd/A 56568-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815494</v>
+        <v>111815501</v>
       </c>
       <c r="B2" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>457558.4152710024</v>
+        <v>457501.6028477412</v>
       </c>
       <c r="R2" t="n">
-        <v>7057456.868363639</v>
+        <v>7058396.615926245</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815472</v>
+        <v>111815503</v>
       </c>
       <c r="B3" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>457859.1684109565</v>
+        <v>457482.2929676044</v>
       </c>
       <c r="R3" t="n">
-        <v>7058252.317324108</v>
+        <v>7057720.548935141</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815486</v>
+        <v>111815476</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,42 +916,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>457490.629824138</v>
+        <v>457561.367873844</v>
       </c>
       <c r="R4" t="n">
-        <v>7057910.64054891</v>
+        <v>7058241.631711838</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -994,11 +990,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815476</v>
+        <v>111815492</v>
       </c>
       <c r="B5" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>457561.367873844</v>
+        <v>457652.3413775756</v>
       </c>
       <c r="R5" t="n">
-        <v>7058241.631711838</v>
+        <v>7058423.476722932</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1137,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815498</v>
+        <v>111815478</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1177,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>457525.8934188869</v>
+        <v>457490.7608241383</v>
       </c>
       <c r="R6" t="n">
-        <v>7057587.081301005</v>
+        <v>7057588.885967719</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1249,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815500</v>
+        <v>111815486</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1265,34 +1256,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>457856.1313392611</v>
+        <v>457490.629824138</v>
       </c>
       <c r="R7" t="n">
-        <v>7058258.134138036</v>
+        <v>7057910.64054891</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1335,6 +1330,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815490</v>
+        <v>111815495</v>
       </c>
       <c r="B8" t="n">
-        <v>56414</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1377,38 +1377,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>457486.844484477</v>
+        <v>457740.1420321366</v>
       </c>
       <c r="R8" t="n">
-        <v>7058059.55768314</v>
+        <v>7057634.880048735</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1451,11 +1447,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1482,10 +1473,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815495</v>
+        <v>111815472</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1494,25 +1485,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1522,10 +1513,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>457740.1420321366</v>
+        <v>457859.1684109565</v>
       </c>
       <c r="R9" t="n">
-        <v>7057634.880048735</v>
+        <v>7058252.317324108</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1594,10 +1585,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815469</v>
+        <v>111815494</v>
       </c>
       <c r="B10" t="n">
-        <v>90087</v>
+        <v>89419</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1606,25 +1597,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>1204</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1634,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>457736.9978307564</v>
+        <v>457558.4152710024</v>
       </c>
       <c r="R10" t="n">
-        <v>7057632.69988044</v>
+        <v>7057456.868363639</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1706,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815484</v>
+        <v>111815469</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1718,42 +1709,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>457499.2570064011</v>
+        <v>457736.9978307564</v>
       </c>
       <c r="R11" t="n">
-        <v>7058354.436788658</v>
+        <v>7057632.69988044</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1796,11 +1783,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1827,7 +1809,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815480</v>
+        <v>111815475</v>
       </c>
       <c r="B12" t="n">
         <v>90087</v>
@@ -1867,10 +1849,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>457650.8748659134</v>
+        <v>457550.3597693135</v>
       </c>
       <c r="R12" t="n">
-        <v>7057581.852142417</v>
+        <v>7058250.221744461</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1939,10 +1921,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815503</v>
+        <v>111815489</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1955,34 +1937,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>457482.2929676044</v>
+        <v>457851.1019836199</v>
       </c>
       <c r="R13" t="n">
-        <v>7057720.548935141</v>
+        <v>7058247.981310523</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2025,6 +2011,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2051,10 +2042,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111815478</v>
+        <v>111815482</v>
       </c>
       <c r="B14" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2063,38 +2054,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>457490.7608241383</v>
+        <v>457734.0897740572</v>
       </c>
       <c r="R14" t="n">
-        <v>7057588.885967719</v>
+        <v>7057881.607121572</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2137,6 +2132,11 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2163,10 +2163,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111815492</v>
+        <v>111815500</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2179,21 +2179,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>457652.3413775756</v>
+        <v>457856.1313392611</v>
       </c>
       <c r="R15" t="n">
-        <v>7058423.476722932</v>
+        <v>7058258.134138036</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2275,10 +2275,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111815485</v>
+        <v>111815470</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2287,42 +2287,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>457446.9368417656</v>
+        <v>457615.01761246</v>
       </c>
       <c r="R16" t="n">
-        <v>7058136.079544679</v>
+        <v>7058260.908339346</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2365,11 +2361,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2396,10 +2387,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111815504</v>
+        <v>111815485</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2412,34 +2403,38 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>457647.6599703166</v>
+        <v>457446.9368417656</v>
       </c>
       <c r="R17" t="n">
-        <v>7057607.672130827</v>
+        <v>7058136.079544679</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2482,6 +2477,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2508,10 +2508,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111815501</v>
+        <v>111815490</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2524,34 +2524,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>457501.6028477412</v>
+        <v>457486.844484477</v>
       </c>
       <c r="R18" t="n">
-        <v>7058396.615926245</v>
+        <v>7058059.55768314</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2594,6 +2598,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2620,10 +2629,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111815489</v>
+        <v>111815498</v>
       </c>
       <c r="B19" t="n">
-        <v>56414</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,38 +2645,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>457851.1019836199</v>
+        <v>457525.8934188869</v>
       </c>
       <c r="R19" t="n">
-        <v>7058247.981310523</v>
+        <v>7057587.081301005</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2710,11 +2715,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2741,7 +2741,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111815475</v>
+        <v>111815471</v>
       </c>
       <c r="B20" t="n">
         <v>90087</v>
@@ -2781,10 +2781,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>457550.3597693135</v>
+        <v>457690.9089585465</v>
       </c>
       <c r="R20" t="n">
-        <v>7058250.221744461</v>
+        <v>7058279.888449568</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2853,10 +2853,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111815506</v>
+        <v>111815484</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2869,34 +2869,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>457558.4688635201</v>
+        <v>457499.2570064011</v>
       </c>
       <c r="R21" t="n">
-        <v>7057460.867698954</v>
+        <v>7058354.436788658</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2939,6 +2943,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2965,10 +2974,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111815471</v>
+        <v>111815483</v>
       </c>
       <c r="B22" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2977,38 +2986,54 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>457690.9089585465</v>
+        <v>457815.3956129756</v>
       </c>
       <c r="R22" t="n">
-        <v>7058279.888449568</v>
+        <v>7058239.570048946</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3077,10 +3102,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111815482</v>
+        <v>111815506</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3093,38 +3118,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>457734.0897740572</v>
+        <v>457558.4688635201</v>
       </c>
       <c r="R23" t="n">
-        <v>7057881.607121572</v>
+        <v>7057460.867698954</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3167,11 +3188,6 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3198,10 +3214,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111815470</v>
+        <v>111815504</v>
       </c>
       <c r="B24" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3210,25 +3226,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3238,10 +3254,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>457615.01761246</v>
+        <v>457647.6599703166</v>
       </c>
       <c r="R24" t="n">
-        <v>7058260.908339346</v>
+        <v>7057607.672130827</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3310,10 +3326,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111815505</v>
+        <v>111815480</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3322,25 +3338,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3350,10 +3366,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>457627.5754243882</v>
+        <v>457650.8748659134</v>
       </c>
       <c r="R25" t="n">
-        <v>7057503.498196352</v>
+        <v>7057581.852142417</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3422,10 +3438,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111815499</v>
+        <v>111815505</v>
       </c>
       <c r="B26" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3438,21 +3454,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3462,10 +3478,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>457639.6605191349</v>
+        <v>457627.5754243882</v>
       </c>
       <c r="R26" t="n">
-        <v>7057508.669857187</v>
+        <v>7057503.498196352</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3534,10 +3550,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111815483</v>
+        <v>111815499</v>
       </c>
       <c r="B27" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3550,50 +3566,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>457815.3956129756</v>
+        <v>457639.6605191349</v>
       </c>
       <c r="R27" t="n">
-        <v>7058239.570048946</v>
+        <v>7057508.669857187</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>

--- a/artfynd/A 56568-2020.xlsx
+++ b/artfynd/A 56568-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815501</v>
+        <v>111815500</v>
       </c>
       <c r="B2" t="n">
         <v>77515</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>457501.6028477412</v>
+        <v>457856.1313392611</v>
       </c>
       <c r="R2" t="n">
-        <v>7058396.615926245</v>
+        <v>7058258.134138036</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815503</v>
+        <v>111815494</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>89419</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>457482.2929676044</v>
+        <v>457558.4152710024</v>
       </c>
       <c r="R3" t="n">
-        <v>7057720.548935141</v>
+        <v>7057456.868363639</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815476</v>
+        <v>111815485</v>
       </c>
       <c r="B4" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,38 +916,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>457561.367873844</v>
+        <v>457446.9368417656</v>
       </c>
       <c r="R4" t="n">
-        <v>7058241.631711838</v>
+        <v>7058136.079544679</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -990,6 +994,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815492</v>
+        <v>111815486</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,34 +1041,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>457652.3413775756</v>
+        <v>457490.629824138</v>
       </c>
       <c r="R5" t="n">
-        <v>7058423.476722932</v>
+        <v>7057910.64054891</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1102,6 +1115,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815478</v>
+        <v>111815505</v>
       </c>
       <c r="B6" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1158,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1186,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>457490.7608241383</v>
+        <v>457627.5754243882</v>
       </c>
       <c r="R6" t="n">
-        <v>7057588.885967719</v>
+        <v>7057503.498196352</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1258,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815486</v>
+        <v>111815489</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,16 +1274,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1284,10 +1302,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>457490.629824138</v>
+        <v>457851.1019836199</v>
       </c>
       <c r="R7" t="n">
-        <v>7057910.64054891</v>
+        <v>7058247.981310523</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1334,7 +1352,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,10 +1379,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815495</v>
+        <v>111815472</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1373,25 +1391,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1401,10 +1419,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>457740.1420321366</v>
+        <v>457859.1684109565</v>
       </c>
       <c r="R8" t="n">
-        <v>7057634.880048735</v>
+        <v>7058252.317324108</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1473,7 +1491,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815472</v>
+        <v>111815471</v>
       </c>
       <c r="B9" t="n">
         <v>90087</v>
@@ -1513,10 +1531,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>457859.1684109565</v>
+        <v>457690.9089585465</v>
       </c>
       <c r="R9" t="n">
-        <v>7058252.317324108</v>
+        <v>7058279.888449568</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1585,10 +1603,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815494</v>
+        <v>111815498</v>
       </c>
       <c r="B10" t="n">
-        <v>89419</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1601,21 +1619,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1643,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>457558.4152710024</v>
+        <v>457525.8934188869</v>
       </c>
       <c r="R10" t="n">
-        <v>7057456.868363639</v>
+        <v>7057587.081301005</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1697,10 +1715,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815469</v>
+        <v>111815499</v>
       </c>
       <c r="B11" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,25 +1727,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1737,10 +1755,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>457736.9978307564</v>
+        <v>457639.6605191349</v>
       </c>
       <c r="R11" t="n">
-        <v>7057632.69988044</v>
+        <v>7057508.669857187</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1809,10 +1827,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815475</v>
+        <v>111815484</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1821,38 +1839,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>457550.3597693135</v>
+        <v>457499.2570064011</v>
       </c>
       <c r="R12" t="n">
-        <v>7058250.221744461</v>
+        <v>7058354.436788658</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1895,6 +1917,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1921,10 +1948,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815489</v>
+        <v>111815475</v>
       </c>
       <c r="B13" t="n">
-        <v>56414</v>
+        <v>90087</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1933,42 +1960,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>457851.1019836199</v>
+        <v>457550.3597693135</v>
       </c>
       <c r="R13" t="n">
-        <v>7058247.981310523</v>
+        <v>7058250.221744461</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2011,11 +2034,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2042,10 +2060,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111815482</v>
+        <v>111815492</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2058,38 +2076,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>457734.0897740572</v>
+        <v>457652.3413775756</v>
       </c>
       <c r="R14" t="n">
-        <v>7057881.607121572</v>
+        <v>7058423.476722932</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2132,11 +2146,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2163,10 +2172,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111815500</v>
+        <v>111815490</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2179,34 +2188,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>457856.1313392611</v>
+        <v>457486.844484477</v>
       </c>
       <c r="R15" t="n">
-        <v>7058258.134138036</v>
+        <v>7058059.55768314</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2249,6 +2262,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2275,10 +2293,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111815470</v>
+        <v>111815503</v>
       </c>
       <c r="B16" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2287,25 +2305,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2315,10 +2333,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>457615.01761246</v>
+        <v>457482.2929676044</v>
       </c>
       <c r="R16" t="n">
-        <v>7058260.908339346</v>
+        <v>7057720.548935141</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2387,10 +2405,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111815485</v>
+        <v>111815506</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2403,38 +2421,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>457446.9368417656</v>
+        <v>457558.4688635201</v>
       </c>
       <c r="R17" t="n">
-        <v>7058136.079544679</v>
+        <v>7057460.867698954</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2477,11 +2491,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2508,10 +2517,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111815490</v>
+        <v>111815478</v>
       </c>
       <c r="B18" t="n">
-        <v>56414</v>
+        <v>90087</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2520,42 +2529,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>3298</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>457486.844484477</v>
+        <v>457490.7608241383</v>
       </c>
       <c r="R18" t="n">
-        <v>7058059.55768314</v>
+        <v>7057588.885967719</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2598,11 +2603,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2629,10 +2629,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111815498</v>
+        <v>111815504</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2645,21 +2645,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2669,10 +2669,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>457525.8934188869</v>
+        <v>457647.6599703166</v>
       </c>
       <c r="R19" t="n">
-        <v>7057587.081301005</v>
+        <v>7057607.672130827</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111815471</v>
+        <v>111815469</v>
       </c>
       <c r="B20" t="n">
         <v>90087</v>
@@ -2781,10 +2781,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>457690.9089585465</v>
+        <v>457736.9978307564</v>
       </c>
       <c r="R20" t="n">
-        <v>7058279.888449568</v>
+        <v>7057632.69988044</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2853,10 +2853,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111815484</v>
+        <v>111815480</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2865,42 +2865,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>457499.2570064011</v>
+        <v>457650.8748659134</v>
       </c>
       <c r="R21" t="n">
-        <v>7058354.436788658</v>
+        <v>7057581.852142417</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2943,11 +2939,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2974,7 +2965,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111815483</v>
+        <v>111815482</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -3007,33 +2998,21 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>457815.3956129756</v>
+        <v>457734.0897740572</v>
       </c>
       <c r="R22" t="n">
-        <v>7058239.570048946</v>
+        <v>7057881.607121572</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3076,6 +3055,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3102,10 +3086,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111815506</v>
+        <v>111815476</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3114,25 +3098,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3142,10 +3126,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>457558.4688635201</v>
+        <v>457561.367873844</v>
       </c>
       <c r="R23" t="n">
-        <v>7057460.867698954</v>
+        <v>7058241.631711838</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3214,10 +3198,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111815504</v>
+        <v>111815495</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3230,21 +3214,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3254,10 +3238,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>457647.6599703166</v>
+        <v>457740.1420321366</v>
       </c>
       <c r="R24" t="n">
-        <v>7057607.672130827</v>
+        <v>7057634.880048735</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3326,10 +3310,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111815480</v>
+        <v>111815501</v>
       </c>
       <c r="B25" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3338,25 +3322,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3366,10 +3350,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>457650.8748659134</v>
+        <v>457501.6028477412</v>
       </c>
       <c r="R25" t="n">
-        <v>7057581.852142417</v>
+        <v>7058396.615926245</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3438,10 +3422,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111815505</v>
+        <v>111815483</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3454,34 +3438,50 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>457627.5754243882</v>
+        <v>457815.3956129756</v>
       </c>
       <c r="R26" t="n">
-        <v>7057503.498196352</v>
+        <v>7058239.570048946</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3550,10 +3550,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111815499</v>
+        <v>111815470</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3562,25 +3562,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3590,10 +3590,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>457639.6605191349</v>
+        <v>457615.01761246</v>
       </c>
       <c r="R27" t="n">
-        <v>7057508.669857187</v>
+        <v>7058260.908339346</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>

--- a/artfynd/A 56568-2020.xlsx
+++ b/artfynd/A 56568-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815500</v>
+        <v>111815485</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>457856.1313392611</v>
+        <v>457446.9368417656</v>
       </c>
       <c r="R2" t="n">
-        <v>7058258.134138036</v>
+        <v>7058136.079544679</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -766,6 +770,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815494</v>
+        <v>111815503</v>
       </c>
       <c r="B3" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +817,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>457558.4152710024</v>
+        <v>457482.2929676044</v>
       </c>
       <c r="R3" t="n">
-        <v>7057456.868363639</v>
+        <v>7057720.548935141</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815485</v>
+        <v>111815495</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,38 +929,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>457446.9368417656</v>
+        <v>457740.1420321366</v>
       </c>
       <c r="R4" t="n">
-        <v>7058136.079544679</v>
+        <v>7057634.880048735</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -994,11 +999,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815486</v>
+        <v>111815494</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,38 +1041,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>457490.629824138</v>
+        <v>457558.4152710024</v>
       </c>
       <c r="R5" t="n">
-        <v>7057910.64054891</v>
+        <v>7057456.868363639</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1115,11 +1111,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1146,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815505</v>
+        <v>111815471</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,25 +1149,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1186,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>457627.5754243882</v>
+        <v>457690.9089585465</v>
       </c>
       <c r="R6" t="n">
-        <v>7057503.498196352</v>
+        <v>7058279.888449568</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1258,10 +1249,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815489</v>
+        <v>111815475</v>
       </c>
       <c r="B7" t="n">
-        <v>56414</v>
+        <v>90087</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1270,42 +1261,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>3298</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>457851.1019836199</v>
+        <v>457550.3597693135</v>
       </c>
       <c r="R7" t="n">
-        <v>7058247.981310523</v>
+        <v>7058250.221744461</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1348,11 +1335,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1379,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815472</v>
+        <v>111815498</v>
       </c>
       <c r="B8" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1391,25 +1373,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1419,10 +1401,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>457859.1684109565</v>
+        <v>457525.8934188869</v>
       </c>
       <c r="R8" t="n">
-        <v>7058252.317324108</v>
+        <v>7057587.081301005</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1491,10 +1473,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815471</v>
+        <v>111815506</v>
       </c>
       <c r="B9" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1503,25 +1485,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1531,10 +1513,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>457690.9089585465</v>
+        <v>457558.4688635201</v>
       </c>
       <c r="R9" t="n">
-        <v>7058279.888449568</v>
+        <v>7057460.867698954</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1603,10 +1585,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815498</v>
+        <v>111815480</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1615,25 +1597,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1643,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>457525.8934188869</v>
+        <v>457650.8748659134</v>
       </c>
       <c r="R10" t="n">
-        <v>7057587.081301005</v>
+        <v>7057581.852142417</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815499</v>
+        <v>111815492</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1731,21 +1713,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1755,10 +1737,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>457639.6605191349</v>
+        <v>457652.3413775756</v>
       </c>
       <c r="R11" t="n">
-        <v>7057508.669857187</v>
+        <v>7058423.476722932</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1827,10 +1809,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815484</v>
+        <v>111815472</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1839,42 +1821,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>457499.2570064011</v>
+        <v>457859.1684109565</v>
       </c>
       <c r="R12" t="n">
-        <v>7058354.436788658</v>
+        <v>7058252.317324108</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1917,11 +1895,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1948,10 +1921,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815475</v>
+        <v>111815501</v>
       </c>
       <c r="B13" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1960,25 +1933,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1988,10 +1961,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>457550.3597693135</v>
+        <v>457501.6028477412</v>
       </c>
       <c r="R13" t="n">
-        <v>7058250.221744461</v>
+        <v>7058396.615926245</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,10 +2033,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111815492</v>
+        <v>111815504</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2076,21 +2049,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2100,10 +2073,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>457652.3413775756</v>
+        <v>457647.6599703166</v>
       </c>
       <c r="R14" t="n">
-        <v>7058423.476722932</v>
+        <v>7057607.672130827</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2172,10 +2145,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111815490</v>
+        <v>111815476</v>
       </c>
       <c r="B15" t="n">
-        <v>56414</v>
+        <v>90087</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2184,42 +2157,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>3298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>457486.844484477</v>
+        <v>457561.367873844</v>
       </c>
       <c r="R15" t="n">
-        <v>7058059.55768314</v>
+        <v>7058241.631711838</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2262,11 +2231,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2293,10 +2257,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111815503</v>
+        <v>111815482</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2309,34 +2273,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>457482.2929676044</v>
+        <v>457734.0897740572</v>
       </c>
       <c r="R16" t="n">
-        <v>7057720.548935141</v>
+        <v>7057881.607121572</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2379,6 +2347,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2405,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111815506</v>
+        <v>111815478</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2417,25 +2390,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2445,10 +2418,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>457558.4688635201</v>
+        <v>457490.7608241383</v>
       </c>
       <c r="R17" t="n">
-        <v>7057460.867698954</v>
+        <v>7057588.885967719</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2517,10 +2490,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111815478</v>
+        <v>111815489</v>
       </c>
       <c r="B18" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2529,38 +2502,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>457490.7608241383</v>
+        <v>457851.1019836199</v>
       </c>
       <c r="R18" t="n">
-        <v>7057588.885967719</v>
+        <v>7058247.981310523</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2603,6 +2580,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2629,10 +2611,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111815504</v>
+        <v>111815470</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2641,25 +2623,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2669,10 +2651,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>457647.6599703166</v>
+        <v>457615.01761246</v>
       </c>
       <c r="R19" t="n">
-        <v>7057607.672130827</v>
+        <v>7058260.908339346</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2741,10 +2723,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111815469</v>
+        <v>111815499</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2753,25 +2735,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2781,10 +2763,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>457736.9978307564</v>
+        <v>457639.6605191349</v>
       </c>
       <c r="R20" t="n">
-        <v>7057632.69988044</v>
+        <v>7057508.669857187</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2853,10 +2835,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111815480</v>
+        <v>111815484</v>
       </c>
       <c r="B21" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2865,38 +2847,42 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>457650.8748659134</v>
+        <v>457499.2570064011</v>
       </c>
       <c r="R21" t="n">
-        <v>7057581.852142417</v>
+        <v>7058354.436788658</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2939,6 +2925,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2965,10 +2956,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111815482</v>
+        <v>111815505</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2981,38 +2972,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>457734.0897740572</v>
+        <v>457627.5754243882</v>
       </c>
       <c r="R22" t="n">
-        <v>7057881.607121572</v>
+        <v>7057503.498196352</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3055,11 +3042,6 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3086,10 +3068,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111815476</v>
+        <v>111815483</v>
       </c>
       <c r="B23" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3098,38 +3080,54 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>457561.367873844</v>
+        <v>457815.3956129756</v>
       </c>
       <c r="R23" t="n">
-        <v>7058241.631711838</v>
+        <v>7058239.570048946</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3198,10 +3196,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111815495</v>
+        <v>111815486</v>
       </c>
       <c r="B24" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3214,34 +3212,38 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>457740.1420321366</v>
+        <v>457490.629824138</v>
       </c>
       <c r="R24" t="n">
-        <v>7057634.880048735</v>
+        <v>7057910.64054891</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3284,6 +3286,11 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3310,10 +3317,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111815501</v>
+        <v>111815469</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3322,25 +3329,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3350,10 +3357,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>457501.6028477412</v>
+        <v>457736.9978307564</v>
       </c>
       <c r="R25" t="n">
-        <v>7058396.615926245</v>
+        <v>7057632.69988044</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3422,10 +3429,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111815483</v>
+        <v>111815500</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3438,50 +3445,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>457815.3956129756</v>
+        <v>457856.1313392611</v>
       </c>
       <c r="R26" t="n">
-        <v>7058239.570048946</v>
+        <v>7058258.134138036</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3550,10 +3541,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111815470</v>
+        <v>111815490</v>
       </c>
       <c r="B27" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3562,38 +3553,42 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>457615.01761246</v>
+        <v>457486.844484477</v>
       </c>
       <c r="R27" t="n">
-        <v>7058260.908339346</v>
+        <v>7058059.55768314</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3636,6 +3631,11 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 56568-2020.xlsx
+++ b/artfynd/A 56568-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815485</v>
+        <v>111815505</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>457446.9368417656</v>
+        <v>457627.5754243882</v>
       </c>
       <c r="R2" t="n">
-        <v>7058136.079544679</v>
+        <v>7057503.498196352</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -770,11 +766,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815503</v>
+        <v>111815483</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,34 +808,50 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>457482.2929676044</v>
+        <v>457815.3956129756</v>
       </c>
       <c r="R3" t="n">
-        <v>7057720.548935141</v>
+        <v>7058239.570048946</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -913,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815495</v>
+        <v>111815503</v>
       </c>
       <c r="B4" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,21 +936,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -953,10 +960,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>457740.1420321366</v>
+        <v>457482.2929676044</v>
       </c>
       <c r="R4" t="n">
-        <v>7057634.880048735</v>
+        <v>7057720.548935141</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1025,10 +1032,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815494</v>
+        <v>111815472</v>
       </c>
       <c r="B5" t="n">
-        <v>89419</v>
+        <v>90087</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,25 +1044,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1204</v>
+        <v>3298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1072,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>457558.4152710024</v>
+        <v>457859.1684109565</v>
       </c>
       <c r="R5" t="n">
-        <v>7057456.868363639</v>
+        <v>7058252.317324108</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1137,7 +1144,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815471</v>
+        <v>111815469</v>
       </c>
       <c r="B6" t="n">
         <v>90087</v>
@@ -1177,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>457690.9089585465</v>
+        <v>457736.9978307564</v>
       </c>
       <c r="R6" t="n">
-        <v>7058279.888449568</v>
+        <v>7057632.69988044</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1249,10 +1256,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815475</v>
+        <v>111815501</v>
       </c>
       <c r="B7" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,25 +1268,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1289,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>457550.3597693135</v>
+        <v>457501.6028477412</v>
       </c>
       <c r="R7" t="n">
-        <v>7058250.221744461</v>
+        <v>7058396.615926245</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1361,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815498</v>
+        <v>111815485</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1377,34 +1384,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>457525.8934188869</v>
+        <v>457446.9368417656</v>
       </c>
       <c r="R8" t="n">
-        <v>7057587.081301005</v>
+        <v>7058136.079544679</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1447,6 +1458,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1473,10 +1489,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815506</v>
+        <v>111815470</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1485,25 +1501,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1513,10 +1529,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>457558.4688635201</v>
+        <v>457615.01761246</v>
       </c>
       <c r="R9" t="n">
-        <v>7057460.867698954</v>
+        <v>7058260.908339346</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1585,10 +1601,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815480</v>
+        <v>111815499</v>
       </c>
       <c r="B10" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1597,25 +1613,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1641,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>457650.8748659134</v>
+        <v>457639.6605191349</v>
       </c>
       <c r="R10" t="n">
-        <v>7057581.852142417</v>
+        <v>7057508.669857187</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1697,10 +1713,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815492</v>
+        <v>111815484</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1713,34 +1729,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>457652.3413775756</v>
+        <v>457499.2570064011</v>
       </c>
       <c r="R11" t="n">
-        <v>7058423.476722932</v>
+        <v>7058354.436788658</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1783,6 +1803,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1809,7 +1834,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815472</v>
+        <v>111815476</v>
       </c>
       <c r="B12" t="n">
         <v>90087</v>
@@ -1849,10 +1874,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>457859.1684109565</v>
+        <v>457561.367873844</v>
       </c>
       <c r="R12" t="n">
-        <v>7058252.317324108</v>
+        <v>7058241.631711838</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1921,10 +1946,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815501</v>
+        <v>111815482</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1937,34 +1962,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>457501.6028477412</v>
+        <v>457734.0897740572</v>
       </c>
       <c r="R13" t="n">
-        <v>7058396.615926245</v>
+        <v>7057881.607121572</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2007,6 +2036,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2033,10 +2067,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111815504</v>
+        <v>111815480</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2045,25 +2079,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2073,10 +2107,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>457647.6599703166</v>
+        <v>457650.8748659134</v>
       </c>
       <c r="R14" t="n">
-        <v>7057607.672130827</v>
+        <v>7057581.852142417</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2145,10 +2179,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111815476</v>
+        <v>111815489</v>
       </c>
       <c r="B15" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2157,38 +2191,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>457561.367873844</v>
+        <v>457851.1019836199</v>
       </c>
       <c r="R15" t="n">
-        <v>7058241.631711838</v>
+        <v>7058247.981310523</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2231,6 +2269,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2257,10 +2300,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111815482</v>
+        <v>111815475</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2269,42 +2312,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>457734.0897740572</v>
+        <v>457550.3597693135</v>
       </c>
       <c r="R16" t="n">
-        <v>7057881.607121572</v>
+        <v>7058250.221744461</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2347,11 +2386,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2378,10 +2412,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111815478</v>
+        <v>111815492</v>
       </c>
       <c r="B17" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2390,25 +2424,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2418,10 +2452,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>457490.7608241383</v>
+        <v>457652.3413775756</v>
       </c>
       <c r="R17" t="n">
-        <v>7057588.885967719</v>
+        <v>7058423.476722932</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2490,7 +2524,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111815489</v>
+        <v>111815490</v>
       </c>
       <c r="B18" t="n">
         <v>56414</v>
@@ -2534,10 +2568,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>457851.1019836199</v>
+        <v>457486.844484477</v>
       </c>
       <c r="R18" t="n">
-        <v>7058247.981310523</v>
+        <v>7058059.55768314</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2611,10 +2645,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111815470</v>
+        <v>111815486</v>
       </c>
       <c r="B19" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2623,38 +2657,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>457615.01761246</v>
+        <v>457490.629824138</v>
       </c>
       <c r="R19" t="n">
-        <v>7058260.908339346</v>
+        <v>7057910.64054891</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2697,6 +2735,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2723,10 +2766,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111815499</v>
+        <v>111815500</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2739,21 +2782,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2763,10 +2806,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>457639.6605191349</v>
+        <v>457856.1313392611</v>
       </c>
       <c r="R20" t="n">
-        <v>7057508.669857187</v>
+        <v>7058258.134138036</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2835,10 +2878,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111815484</v>
+        <v>111815495</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2851,38 +2894,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>457499.2570064011</v>
+        <v>457740.1420321366</v>
       </c>
       <c r="R21" t="n">
-        <v>7058354.436788658</v>
+        <v>7057634.880048735</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2925,11 +2964,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2956,10 +2990,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111815505</v>
+        <v>111815471</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2968,25 +3002,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2996,10 +3030,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>457627.5754243882</v>
+        <v>457690.9089585465</v>
       </c>
       <c r="R22" t="n">
-        <v>7057503.498196352</v>
+        <v>7058279.888449568</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3068,10 +3102,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111815483</v>
+        <v>111815498</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3084,50 +3118,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>457815.3956129756</v>
+        <v>457525.8934188869</v>
       </c>
       <c r="R23" t="n">
-        <v>7058239.570048946</v>
+        <v>7057587.081301005</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3196,10 +3214,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111815486</v>
+        <v>111815478</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3208,42 +3226,38 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>457490.629824138</v>
+        <v>457490.7608241383</v>
       </c>
       <c r="R24" t="n">
-        <v>7057910.64054891</v>
+        <v>7057588.885967719</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3286,11 +3300,6 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3317,10 +3326,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111815469</v>
+        <v>111815504</v>
       </c>
       <c r="B25" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3329,25 +3338,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3357,10 +3366,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>457736.9978307564</v>
+        <v>457647.6599703166</v>
       </c>
       <c r="R25" t="n">
-        <v>7057632.69988044</v>
+        <v>7057607.672130827</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3429,10 +3438,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111815500</v>
+        <v>111815494</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>89419</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3445,21 +3454,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3469,10 +3478,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>457856.1313392611</v>
+        <v>457558.4152710024</v>
       </c>
       <c r="R26" t="n">
-        <v>7058258.134138036</v>
+        <v>7057456.868363639</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3541,10 +3550,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111815490</v>
+        <v>111815506</v>
       </c>
       <c r="B27" t="n">
-        <v>56414</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3557,38 +3566,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>457486.844484477</v>
+        <v>457558.4688635201</v>
       </c>
       <c r="R27" t="n">
-        <v>7058059.55768314</v>
+        <v>7057460.867698954</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3631,11 +3636,6 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 56568-2020.xlsx
+++ b/artfynd/A 56568-2020.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815483</v>
+        <v>111815472</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,54 +804,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>457815.3956129756</v>
+        <v>457859.1684109565</v>
       </c>
       <c r="R3" t="n">
-        <v>7058239.570048946</v>
+        <v>7058252.317324108</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -920,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815503</v>
+        <v>111815483</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,34 +920,50 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>457482.2929676044</v>
+        <v>457815.3956129756</v>
       </c>
       <c r="R4" t="n">
-        <v>7057720.548935141</v>
+        <v>7058239.570048946</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815472</v>
+        <v>111815503</v>
       </c>
       <c r="B5" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,25 +1044,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>457859.1684109565</v>
+        <v>457482.2929676044</v>
       </c>
       <c r="R5" t="n">
-        <v>7058252.317324108</v>
+        <v>7057720.548935141</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815484</v>
+        <v>111815476</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1725,42 +1725,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>457499.2570064011</v>
+        <v>457561.367873844</v>
       </c>
       <c r="R11" t="n">
-        <v>7058354.436788658</v>
+        <v>7058241.631711838</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1803,11 +1799,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1834,10 +1825,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815476</v>
+        <v>111815484</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1846,38 +1837,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>457561.367873844</v>
+        <v>457499.2570064011</v>
       </c>
       <c r="R12" t="n">
-        <v>7058241.631711838</v>
+        <v>7058354.436788658</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1920,6 +1915,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2067,7 +2067,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111815480</v>
+        <v>111815475</v>
       </c>
       <c r="B14" t="n">
         <v>90087</v>
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>457650.8748659134</v>
+        <v>457550.3597693135</v>
       </c>
       <c r="R14" t="n">
-        <v>7057581.852142417</v>
+        <v>7058250.221744461</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111815489</v>
+        <v>111815480</v>
       </c>
       <c r="B15" t="n">
-        <v>56414</v>
+        <v>90087</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2191,42 +2191,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>3298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>457851.1019836199</v>
+        <v>457650.8748659134</v>
       </c>
       <c r="R15" t="n">
-        <v>7058247.981310523</v>
+        <v>7057581.852142417</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2269,11 +2265,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2300,10 +2291,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111815475</v>
+        <v>111815489</v>
       </c>
       <c r="B16" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2312,38 +2303,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>457550.3597693135</v>
+        <v>457851.1019836199</v>
       </c>
       <c r="R16" t="n">
-        <v>7058250.221744461</v>
+        <v>7058247.981310523</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2386,6 +2381,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD16" t="b">

--- a/artfynd/A 56568-2020.xlsx
+++ b/artfynd/A 56568-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815505</v>
+        <v>111815495</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>457627.5754243882</v>
+        <v>457740.1420321366</v>
       </c>
       <c r="R2" t="n">
-        <v>7057503.498196352</v>
+        <v>7057634.880048735</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815472</v>
+        <v>111815469</v>
       </c>
       <c r="B3" t="n">
         <v>90087</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>457859.1684109565</v>
+        <v>457736.9978307564</v>
       </c>
       <c r="R3" t="n">
-        <v>7058252.317324108</v>
+        <v>7057632.69988044</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815483</v>
+        <v>111815484</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -937,33 +937,21 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>457815.3956129756</v>
+        <v>457499.2570064011</v>
       </c>
       <c r="R4" t="n">
-        <v>7058239.570048946</v>
+        <v>7058354.436788658</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1006,6 +994,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1032,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815503</v>
+        <v>111815492</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,21 +1041,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1072,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>457482.2929676044</v>
+        <v>457652.3413775756</v>
       </c>
       <c r="R5" t="n">
-        <v>7057720.548935141</v>
+        <v>7058423.476722932</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815469</v>
+        <v>111815482</v>
       </c>
       <c r="B6" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,38 +1149,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>457736.9978307564</v>
+        <v>457734.0897740572</v>
       </c>
       <c r="R6" t="n">
-        <v>7057632.69988044</v>
+        <v>7057881.607121572</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1230,6 +1227,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1256,10 +1258,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815501</v>
+        <v>111815475</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1268,25 +1270,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1296,10 +1298,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>457501.6028477412</v>
+        <v>457550.3597693135</v>
       </c>
       <c r="R7" t="n">
-        <v>7058396.615926245</v>
+        <v>7058250.221744461</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1368,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815485</v>
+        <v>111815499</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1384,38 +1386,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>457446.9368417656</v>
+        <v>457639.6605191349</v>
       </c>
       <c r="R8" t="n">
-        <v>7058136.079544679</v>
+        <v>7057508.669857187</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1458,11 +1456,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1489,7 +1482,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815470</v>
+        <v>111815476</v>
       </c>
       <c r="B9" t="n">
         <v>90087</v>
@@ -1529,10 +1522,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>457615.01761246</v>
+        <v>457561.367873844</v>
       </c>
       <c r="R9" t="n">
-        <v>7058260.908339346</v>
+        <v>7058241.631711838</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1601,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815499</v>
+        <v>111815478</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1613,25 +1606,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1641,10 +1634,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>457639.6605191349</v>
+        <v>457490.7608241383</v>
       </c>
       <c r="R10" t="n">
-        <v>7057508.669857187</v>
+        <v>7057588.885967719</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1713,10 +1706,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815476</v>
+        <v>111815501</v>
       </c>
       <c r="B11" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1725,25 +1718,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1753,10 +1746,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>457561.367873844</v>
+        <v>457501.6028477412</v>
       </c>
       <c r="R11" t="n">
-        <v>7058241.631711838</v>
+        <v>7058396.615926245</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1825,10 +1818,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815484</v>
+        <v>111815480</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1837,42 +1830,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>457499.2570064011</v>
+        <v>457650.8748659134</v>
       </c>
       <c r="R12" t="n">
-        <v>7058354.436788658</v>
+        <v>7057581.852142417</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1915,11 +1904,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1946,10 +1930,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815482</v>
+        <v>111815504</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1962,38 +1946,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>457734.0897740572</v>
+        <v>457647.6599703166</v>
       </c>
       <c r="R13" t="n">
-        <v>7057881.607121572</v>
+        <v>7057607.672130827</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2036,11 +2016,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2067,10 +2042,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111815475</v>
+        <v>111815494</v>
       </c>
       <c r="B14" t="n">
-        <v>90087</v>
+        <v>89419</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2079,25 +2054,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3298</v>
+        <v>1204</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2107,10 +2082,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>457550.3597693135</v>
+        <v>457558.4152710024</v>
       </c>
       <c r="R14" t="n">
-        <v>7058250.221744461</v>
+        <v>7057456.868363639</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2179,10 +2154,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111815480</v>
+        <v>111815490</v>
       </c>
       <c r="B15" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2191,38 +2166,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>457650.8748659134</v>
+        <v>457486.844484477</v>
       </c>
       <c r="R15" t="n">
-        <v>7057581.852142417</v>
+        <v>7058059.55768314</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2265,6 +2244,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2412,10 +2396,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111815492</v>
+        <v>111815471</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2424,25 +2408,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2452,10 +2436,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>457652.3413775756</v>
+        <v>457690.9089585465</v>
       </c>
       <c r="R17" t="n">
-        <v>7058423.476722932</v>
+        <v>7058279.888449568</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2524,10 +2508,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111815490</v>
+        <v>111815485</v>
       </c>
       <c r="B18" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2540,16 +2524,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2568,10 +2552,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>457486.844484477</v>
+        <v>457446.9368417656</v>
       </c>
       <c r="R18" t="n">
-        <v>7058059.55768314</v>
+        <v>7058136.079544679</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2618,7 +2602,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2645,10 +2629,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111815486</v>
+        <v>111815503</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2661,38 +2645,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>457490.629824138</v>
+        <v>457482.2929676044</v>
       </c>
       <c r="R19" t="n">
-        <v>7057910.64054891</v>
+        <v>7057720.548935141</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2735,11 +2715,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2766,7 +2741,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111815500</v>
+        <v>111815506</v>
       </c>
       <c r="B20" t="n">
         <v>77515</v>
@@ -2806,10 +2781,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>457856.1313392611</v>
+        <v>457558.4688635201</v>
       </c>
       <c r="R20" t="n">
-        <v>7058258.134138036</v>
+        <v>7057460.867698954</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2878,10 +2853,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111815495</v>
+        <v>111815472</v>
       </c>
       <c r="B21" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2890,25 +2865,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2918,10 +2893,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>457740.1420321366</v>
+        <v>457859.1684109565</v>
       </c>
       <c r="R21" t="n">
-        <v>7057634.880048735</v>
+        <v>7058252.317324108</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2990,10 +2965,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111815471</v>
+        <v>111815505</v>
       </c>
       <c r="B22" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3002,25 +2977,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3030,10 +3005,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>457690.9089585465</v>
+        <v>457627.5754243882</v>
       </c>
       <c r="R22" t="n">
-        <v>7058279.888449568</v>
+        <v>7057503.498196352</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3102,10 +3077,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111815498</v>
+        <v>111815470</v>
       </c>
       <c r="B23" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3114,25 +3089,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3142,10 +3117,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>457525.8934188869</v>
+        <v>457615.01761246</v>
       </c>
       <c r="R23" t="n">
-        <v>7057587.081301005</v>
+        <v>7058260.908339346</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3214,10 +3189,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111815478</v>
+        <v>111815500</v>
       </c>
       <c r="B24" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3226,25 +3201,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3254,10 +3229,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>457490.7608241383</v>
+        <v>457856.1313392611</v>
       </c>
       <c r="R24" t="n">
-        <v>7057588.885967719</v>
+        <v>7058258.134138036</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3326,10 +3301,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111815504</v>
+        <v>111815498</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3342,21 +3317,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3366,10 +3341,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>457647.6599703166</v>
+        <v>457525.8934188869</v>
       </c>
       <c r="R25" t="n">
-        <v>7057607.672130827</v>
+        <v>7057587.081301005</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3438,10 +3413,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111815494</v>
+        <v>111815483</v>
       </c>
       <c r="B26" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3454,34 +3429,50 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>457558.4152710024</v>
+        <v>457815.3956129756</v>
       </c>
       <c r="R26" t="n">
-        <v>7057456.868363639</v>
+        <v>7058239.570048946</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3550,10 +3541,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111815506</v>
+        <v>111815486</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3566,34 +3557,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>457558.4688635201</v>
+        <v>457490.629824138</v>
       </c>
       <c r="R27" t="n">
-        <v>7057460.867698954</v>
+        <v>7057910.64054891</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3636,6 +3631,11 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 56568-2020.xlsx
+++ b/artfynd/A 56568-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815495</v>
+        <v>111815501</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>457740.1420321366</v>
+        <v>457501.6028477412</v>
       </c>
       <c r="R2" t="n">
-        <v>7057634.880048735</v>
+        <v>7058396.615926245</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815469</v>
+        <v>111815504</v>
       </c>
       <c r="B3" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>457736.9978307564</v>
+        <v>457647.6599703166</v>
       </c>
       <c r="R3" t="n">
-        <v>7057632.69988044</v>
+        <v>7057607.672130827</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815484</v>
+        <v>111815494</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,38 +920,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>457499.2570064011</v>
+        <v>457558.4152710024</v>
       </c>
       <c r="R4" t="n">
-        <v>7058354.436788658</v>
+        <v>7057456.868363639</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -994,11 +990,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815492</v>
+        <v>111815484</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,34 +1032,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>457652.3413775756</v>
+        <v>457499.2570064011</v>
       </c>
       <c r="R5" t="n">
-        <v>7058423.476722932</v>
+        <v>7058354.436788658</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1111,6 +1106,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1137,7 +1137,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815482</v>
+        <v>111815486</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>457734.0897740572</v>
+        <v>457490.629824138</v>
       </c>
       <c r="R6" t="n">
-        <v>7057881.607121572</v>
+        <v>7057910.64054891</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815475</v>
+        <v>111815478</v>
       </c>
       <c r="B7" t="n">
         <v>90087</v>
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>457550.3597693135</v>
+        <v>457490.7608241383</v>
       </c>
       <c r="R7" t="n">
-        <v>7058250.221744461</v>
+        <v>7057588.885967719</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815499</v>
+        <v>111815476</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1382,25 +1382,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>457639.6605191349</v>
+        <v>457561.367873844</v>
       </c>
       <c r="R8" t="n">
-        <v>7057508.669857187</v>
+        <v>7058241.631711838</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1482,10 +1482,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815476</v>
+        <v>111815505</v>
       </c>
       <c r="B9" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1494,25 +1494,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>457561.367873844</v>
+        <v>457627.5754243882</v>
       </c>
       <c r="R9" t="n">
-        <v>7058241.631711838</v>
+        <v>7057503.498196352</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815478</v>
+        <v>111815475</v>
       </c>
       <c r="B10" t="n">
         <v>90087</v>
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>457490.7608241383</v>
+        <v>457550.3597693135</v>
       </c>
       <c r="R10" t="n">
-        <v>7057588.885967719</v>
+        <v>7058250.221744461</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815501</v>
+        <v>111815503</v>
       </c>
       <c r="B11" t="n">
         <v>77515</v>
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>457501.6028477412</v>
+        <v>457482.2929676044</v>
       </c>
       <c r="R11" t="n">
-        <v>7058396.615926245</v>
+        <v>7057720.548935141</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815480</v>
+        <v>111815490</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1830,38 +1830,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>457650.8748659134</v>
+        <v>457486.844484477</v>
       </c>
       <c r="R12" t="n">
-        <v>7057581.852142417</v>
+        <v>7058059.55768314</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1904,6 +1908,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1930,10 +1939,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815504</v>
+        <v>111815482</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1946,34 +1955,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>457647.6599703166</v>
+        <v>457734.0897740572</v>
       </c>
       <c r="R13" t="n">
-        <v>7057607.672130827</v>
+        <v>7057881.607121572</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2016,6 +2029,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2042,10 +2060,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111815494</v>
+        <v>111815480</v>
       </c>
       <c r="B14" t="n">
-        <v>89419</v>
+        <v>90087</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2054,25 +2072,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1204</v>
+        <v>3298</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2082,10 +2100,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>457558.4152710024</v>
+        <v>457650.8748659134</v>
       </c>
       <c r="R14" t="n">
-        <v>7057456.868363639</v>
+        <v>7057581.852142417</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2154,10 +2172,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111815490</v>
+        <v>111815483</v>
       </c>
       <c r="B15" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2170,16 +2188,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2187,21 +2205,33 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>457486.844484477</v>
+        <v>457815.3956129756</v>
       </c>
       <c r="R15" t="n">
-        <v>7058059.55768314</v>
+        <v>7058239.570048946</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2244,11 +2274,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2275,10 +2300,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111815489</v>
+        <v>111815495</v>
       </c>
       <c r="B16" t="n">
-        <v>56414</v>
+        <v>89423</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2291,38 +2316,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>457851.1019836199</v>
+        <v>457740.1420321366</v>
       </c>
       <c r="R16" t="n">
-        <v>7058247.981310523</v>
+        <v>7057634.880048735</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2365,11 +2386,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2396,7 +2412,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111815471</v>
+        <v>111815469</v>
       </c>
       <c r="B17" t="n">
         <v>90087</v>
@@ -2436,10 +2452,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>457690.9089585465</v>
+        <v>457736.9978307564</v>
       </c>
       <c r="R17" t="n">
-        <v>7058279.888449568</v>
+        <v>7057632.69988044</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2508,10 +2524,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111815485</v>
+        <v>111815498</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2524,38 +2540,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>457446.9368417656</v>
+        <v>457525.8934188869</v>
       </c>
       <c r="R18" t="n">
-        <v>7058136.079544679</v>
+        <v>7057587.081301005</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2598,11 +2610,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2629,7 +2636,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111815503</v>
+        <v>111815500</v>
       </c>
       <c r="B19" t="n">
         <v>77515</v>
@@ -2669,10 +2676,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>457482.2929676044</v>
+        <v>457856.1313392611</v>
       </c>
       <c r="R19" t="n">
-        <v>7057720.548935141</v>
+        <v>7058258.134138036</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2741,10 +2748,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111815506</v>
+        <v>111815472</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2753,25 +2760,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2781,10 +2788,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>457558.4688635201</v>
+        <v>457859.1684109565</v>
       </c>
       <c r="R20" t="n">
-        <v>7057460.867698954</v>
+        <v>7058252.317324108</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2853,10 +2860,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111815472</v>
+        <v>111815499</v>
       </c>
       <c r="B21" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2865,25 +2872,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2893,10 +2900,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>457859.1684109565</v>
+        <v>457639.6605191349</v>
       </c>
       <c r="R21" t="n">
-        <v>7058252.317324108</v>
+        <v>7057508.669857187</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2965,7 +2972,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111815505</v>
+        <v>111815506</v>
       </c>
       <c r="B22" t="n">
         <v>77515</v>
@@ -3005,10 +3012,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>457627.5754243882</v>
+        <v>457558.4688635201</v>
       </c>
       <c r="R22" t="n">
-        <v>7057503.498196352</v>
+        <v>7057460.867698954</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3189,10 +3196,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111815500</v>
+        <v>111815489</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3205,34 +3212,38 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>457856.1313392611</v>
+        <v>457851.1019836199</v>
       </c>
       <c r="R24" t="n">
-        <v>7058258.134138036</v>
+        <v>7058247.981310523</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3275,6 +3286,11 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3301,10 +3317,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111815498</v>
+        <v>111815492</v>
       </c>
       <c r="B25" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3317,21 +3333,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3341,10 +3357,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>457525.8934188869</v>
+        <v>457652.3413775756</v>
       </c>
       <c r="R25" t="n">
-        <v>7057587.081301005</v>
+        <v>7058423.476722932</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3413,10 +3429,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111815483</v>
+        <v>111815471</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3425,54 +3441,38 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>457815.3956129756</v>
+        <v>457690.9089585465</v>
       </c>
       <c r="R26" t="n">
-        <v>7058239.570048946</v>
+        <v>7058279.888449568</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111815486</v>
+        <v>111815485</v>
       </c>
       <c r="B27" t="n">
         <v>56398</v>
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>457490.629824138</v>
+        <v>457446.9368417656</v>
       </c>
       <c r="R27" t="n">
-        <v>7057910.64054891</v>
+        <v>7058136.079544679</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>

--- a/artfynd/A 56568-2020.xlsx
+++ b/artfynd/A 56568-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815501</v>
+        <v>111815475</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>457501.6028477412</v>
+        <v>457550.3597693135</v>
       </c>
       <c r="R2" t="n">
-        <v>7058396.615926245</v>
+        <v>7058250.221744461</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815504</v>
+        <v>111815480</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>457647.6599703166</v>
+        <v>457650.8748659134</v>
       </c>
       <c r="R3" t="n">
-        <v>7057607.672130827</v>
+        <v>7057581.852142417</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815494</v>
+        <v>111815482</v>
       </c>
       <c r="B4" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,34 +920,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>457558.4152710024</v>
+        <v>457734.0897740572</v>
       </c>
       <c r="R4" t="n">
-        <v>7057456.868363639</v>
+        <v>7057881.607121572</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -990,6 +994,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,7 +1025,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815484</v>
+        <v>111815483</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1049,21 +1058,33 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>457499.2570064011</v>
+        <v>457815.3956129756</v>
       </c>
       <c r="R5" t="n">
-        <v>7058354.436788658</v>
+        <v>7058239.570048946</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1106,11 +1127,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1137,10 +1153,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815486</v>
+        <v>111815489</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,16 +1169,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1181,10 +1197,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>457490.629824138</v>
+        <v>457851.1019836199</v>
       </c>
       <c r="R6" t="n">
-        <v>7057910.64054891</v>
+        <v>7058247.981310523</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1231,7 +1247,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1258,10 +1274,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815478</v>
+        <v>111815500</v>
       </c>
       <c r="B7" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1270,25 +1286,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1298,10 +1314,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>457490.7608241383</v>
+        <v>457856.1313392611</v>
       </c>
       <c r="R7" t="n">
-        <v>7057588.885967719</v>
+        <v>7058258.134138036</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1482,10 +1498,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815505</v>
+        <v>111815490</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1498,34 +1514,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>457627.5754243882</v>
+        <v>457486.844484477</v>
       </c>
       <c r="R9" t="n">
-        <v>7057503.498196352</v>
+        <v>7058059.55768314</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1568,6 +1588,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1594,7 +1619,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815475</v>
+        <v>111815470</v>
       </c>
       <c r="B10" t="n">
         <v>90087</v>
@@ -1634,10 +1659,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>457550.3597693135</v>
+        <v>457615.01761246</v>
       </c>
       <c r="R10" t="n">
-        <v>7058250.221744461</v>
+        <v>7058260.908339346</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1818,10 +1843,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815490</v>
+        <v>111815501</v>
       </c>
       <c r="B12" t="n">
-        <v>56414</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1834,38 +1859,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>457486.844484477</v>
+        <v>457501.6028477412</v>
       </c>
       <c r="R12" t="n">
-        <v>7058059.55768314</v>
+        <v>7058396.615926245</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1908,11 +1929,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1939,10 +1955,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815482</v>
+        <v>111815469</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1951,42 +1967,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>457734.0897740572</v>
+        <v>457736.9978307564</v>
       </c>
       <c r="R13" t="n">
-        <v>7057881.607121572</v>
+        <v>7057632.69988044</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2029,11 +2041,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2060,7 +2067,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111815480</v>
+        <v>111815471</v>
       </c>
       <c r="B14" t="n">
         <v>90087</v>
@@ -2100,10 +2107,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>457650.8748659134</v>
+        <v>457690.9089585465</v>
       </c>
       <c r="R14" t="n">
-        <v>7057581.852142417</v>
+        <v>7058279.888449568</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2172,10 +2179,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111815483</v>
+        <v>111815495</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2188,50 +2195,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>457815.3956129756</v>
+        <v>457740.1420321366</v>
       </c>
       <c r="R15" t="n">
-        <v>7058239.570048946</v>
+        <v>7057634.880048735</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2300,10 +2291,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111815495</v>
+        <v>111815492</v>
       </c>
       <c r="B16" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2316,21 +2307,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2340,10 +2331,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>457740.1420321366</v>
+        <v>457652.3413775756</v>
       </c>
       <c r="R16" t="n">
-        <v>7057634.880048735</v>
+        <v>7058423.476722932</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2412,7 +2403,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111815469</v>
+        <v>111815478</v>
       </c>
       <c r="B17" t="n">
         <v>90087</v>
@@ -2452,10 +2443,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>457736.9978307564</v>
+        <v>457490.7608241383</v>
       </c>
       <c r="R17" t="n">
-        <v>7057632.69988044</v>
+        <v>7057588.885967719</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2524,10 +2515,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111815498</v>
+        <v>111815494</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>89419</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2540,21 +2531,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2564,10 +2555,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>457525.8934188869</v>
+        <v>457558.4152710024</v>
       </c>
       <c r="R18" t="n">
-        <v>7057587.081301005</v>
+        <v>7057456.868363639</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2636,10 +2627,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111815500</v>
+        <v>111815498</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2652,21 +2643,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2676,10 +2667,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>457856.1313392611</v>
+        <v>457525.8934188869</v>
       </c>
       <c r="R19" t="n">
-        <v>7058258.134138036</v>
+        <v>7057587.081301005</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2860,10 +2851,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111815499</v>
+        <v>111815486</v>
       </c>
       <c r="B21" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2876,34 +2867,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>457639.6605191349</v>
+        <v>457490.629824138</v>
       </c>
       <c r="R21" t="n">
-        <v>7057508.669857187</v>
+        <v>7057910.64054891</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2946,6 +2941,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2972,10 +2972,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111815506</v>
+        <v>111815499</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2988,21 +2988,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3012,10 +3012,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>457558.4688635201</v>
+        <v>457639.6605191349</v>
       </c>
       <c r="R22" t="n">
-        <v>7057460.867698954</v>
+        <v>7057508.669857187</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3084,10 +3084,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111815470</v>
+        <v>111815506</v>
       </c>
       <c r="B23" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3096,25 +3096,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3124,10 +3124,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>457615.01761246</v>
+        <v>457558.4688635201</v>
       </c>
       <c r="R23" t="n">
-        <v>7058260.908339346</v>
+        <v>7057460.867698954</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3196,10 +3196,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111815489</v>
+        <v>111815505</v>
       </c>
       <c r="B24" t="n">
-        <v>56414</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3212,38 +3212,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>457851.1019836199</v>
+        <v>457627.5754243882</v>
       </c>
       <c r="R24" t="n">
-        <v>7058247.981310523</v>
+        <v>7057503.498196352</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3286,11 +3282,6 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3317,10 +3308,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111815492</v>
+        <v>111815484</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3333,34 +3324,38 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>457652.3413775756</v>
+        <v>457499.2570064011</v>
       </c>
       <c r="R25" t="n">
-        <v>7058423.476722932</v>
+        <v>7058354.436788658</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3403,6 +3398,11 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3429,10 +3429,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111815471</v>
+        <v>111815485</v>
       </c>
       <c r="B26" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3441,38 +3441,42 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>457690.9089585465</v>
+        <v>457446.9368417656</v>
       </c>
       <c r="R26" t="n">
-        <v>7058279.888449568</v>
+        <v>7058136.079544679</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3515,6 +3519,11 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3541,10 +3550,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111815485</v>
+        <v>111815504</v>
       </c>
       <c r="B27" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3557,38 +3566,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>457446.9368417656</v>
+        <v>457647.6599703166</v>
       </c>
       <c r="R27" t="n">
-        <v>7058136.079544679</v>
+        <v>7057607.672130827</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3631,11 +3636,6 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 56568-2020.xlsx
+++ b/artfynd/A 56568-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815475</v>
+        <v>111815471</v>
       </c>
       <c r="B2" t="n">
         <v>90087</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>457550.3597693135</v>
+        <v>457690.9089585465</v>
       </c>
       <c r="R2" t="n">
-        <v>7058250.221744461</v>
+        <v>7058279.888449568</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815480</v>
+        <v>111815495</v>
       </c>
       <c r="B3" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>457650.8748659134</v>
+        <v>457740.1420321366</v>
       </c>
       <c r="R3" t="n">
-        <v>7057581.852142417</v>
+        <v>7057634.880048735</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815482</v>
+        <v>111815505</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,38 +920,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>457734.0897740572</v>
+        <v>457627.5754243882</v>
       </c>
       <c r="R4" t="n">
-        <v>7057881.607121572</v>
+        <v>7057503.498196352</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -994,11 +990,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815483</v>
+        <v>111815484</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1058,33 +1049,21 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>457815.3956129756</v>
+        <v>457499.2570064011</v>
       </c>
       <c r="R5" t="n">
-        <v>7058239.570048946</v>
+        <v>7058354.436788658</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1127,6 +1106,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1153,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815489</v>
+        <v>111815492</v>
       </c>
       <c r="B6" t="n">
-        <v>56414</v>
+        <v>78578</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,38 +1153,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>457851.1019836199</v>
+        <v>457652.3413775756</v>
       </c>
       <c r="R6" t="n">
-        <v>7058247.981310523</v>
+        <v>7058423.476722932</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1243,11 +1223,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1274,10 +1249,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815500</v>
+        <v>111815490</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1290,34 +1265,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>457856.1313392611</v>
+        <v>457486.844484477</v>
       </c>
       <c r="R7" t="n">
-        <v>7058258.134138036</v>
+        <v>7058059.55768314</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1360,6 +1339,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1386,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815476</v>
+        <v>111815486</v>
       </c>
       <c r="B8" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1398,38 +1382,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>457561.367873844</v>
+        <v>457490.629824138</v>
       </c>
       <c r="R8" t="n">
-        <v>7058241.631711838</v>
+        <v>7057910.64054891</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1472,6 +1460,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1498,7 +1491,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815490</v>
+        <v>111815489</v>
       </c>
       <c r="B9" t="n">
         <v>56414</v>
@@ -1542,10 +1535,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>457486.844484477</v>
+        <v>457851.1019836199</v>
       </c>
       <c r="R9" t="n">
-        <v>7058059.55768314</v>
+        <v>7058247.981310523</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1619,7 +1612,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815470</v>
+        <v>111815476</v>
       </c>
       <c r="B10" t="n">
         <v>90087</v>
@@ -1659,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>457615.01761246</v>
+        <v>457561.367873844</v>
       </c>
       <c r="R10" t="n">
-        <v>7058260.908339346</v>
+        <v>7058241.631711838</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1731,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815503</v>
+        <v>111815475</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1743,25 +1736,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1771,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>457482.2929676044</v>
+        <v>457550.3597693135</v>
       </c>
       <c r="R11" t="n">
-        <v>7057720.548935141</v>
+        <v>7058250.221744461</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1843,7 +1836,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815501</v>
+        <v>111815504</v>
       </c>
       <c r="B12" t="n">
         <v>77515</v>
@@ -1883,10 +1876,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>457501.6028477412</v>
+        <v>457647.6599703166</v>
       </c>
       <c r="R12" t="n">
-        <v>7058396.615926245</v>
+        <v>7057607.672130827</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1955,10 +1948,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815469</v>
+        <v>111815494</v>
       </c>
       <c r="B13" t="n">
-        <v>90087</v>
+        <v>89419</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1967,25 +1960,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>1204</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1995,10 +1988,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>457736.9978307564</v>
+        <v>457558.4152710024</v>
       </c>
       <c r="R13" t="n">
-        <v>7057632.69988044</v>
+        <v>7057456.868363639</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2067,7 +2060,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111815471</v>
+        <v>111815470</v>
       </c>
       <c r="B14" t="n">
         <v>90087</v>
@@ -2107,10 +2100,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>457690.9089585465</v>
+        <v>457615.01761246</v>
       </c>
       <c r="R14" t="n">
-        <v>7058279.888449568</v>
+        <v>7058260.908339346</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2179,10 +2172,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111815495</v>
+        <v>111815483</v>
       </c>
       <c r="B15" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2195,34 +2188,50 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>457740.1420321366</v>
+        <v>457815.3956129756</v>
       </c>
       <c r="R15" t="n">
-        <v>7057634.880048735</v>
+        <v>7058239.570048946</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2291,10 +2300,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111815492</v>
+        <v>111815506</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2307,21 +2316,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2331,10 +2340,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>457652.3413775756</v>
+        <v>457558.4688635201</v>
       </c>
       <c r="R16" t="n">
-        <v>7058423.476722932</v>
+        <v>7057460.867698954</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2403,7 +2412,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111815478</v>
+        <v>111815472</v>
       </c>
       <c r="B17" t="n">
         <v>90087</v>
@@ -2443,10 +2452,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>457490.7608241383</v>
+        <v>457859.1684109565</v>
       </c>
       <c r="R17" t="n">
-        <v>7057588.885967719</v>
+        <v>7058252.317324108</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2515,10 +2524,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111815494</v>
+        <v>111815482</v>
       </c>
       <c r="B18" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2531,34 +2540,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>457558.4152710024</v>
+        <v>457734.0897740572</v>
       </c>
       <c r="R18" t="n">
-        <v>7057456.868363639</v>
+        <v>7057881.607121572</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2601,6 +2614,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2627,10 +2645,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111815498</v>
+        <v>111815500</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2643,21 +2661,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2667,10 +2685,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>457525.8934188869</v>
+        <v>457856.1313392611</v>
       </c>
       <c r="R19" t="n">
-        <v>7057587.081301005</v>
+        <v>7058258.134138036</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2739,7 +2757,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111815472</v>
+        <v>111815480</v>
       </c>
       <c r="B20" t="n">
         <v>90087</v>
@@ -2779,10 +2797,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>457859.1684109565</v>
+        <v>457650.8748659134</v>
       </c>
       <c r="R20" t="n">
-        <v>7058252.317324108</v>
+        <v>7057581.852142417</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2851,10 +2869,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111815486</v>
+        <v>111815503</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2867,38 +2885,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>457490.629824138</v>
+        <v>457482.2929676044</v>
       </c>
       <c r="R21" t="n">
-        <v>7057910.64054891</v>
+        <v>7057720.548935141</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2941,11 +2955,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2972,10 +2981,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111815499</v>
+        <v>111815485</v>
       </c>
       <c r="B22" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2988,34 +2997,38 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>457639.6605191349</v>
+        <v>457446.9368417656</v>
       </c>
       <c r="R22" t="n">
-        <v>7057508.669857187</v>
+        <v>7058136.079544679</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3058,6 +3071,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3084,10 +3102,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111815506</v>
+        <v>111815478</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3096,25 +3114,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3124,10 +3142,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>457558.4688635201</v>
+        <v>457490.7608241383</v>
       </c>
       <c r="R23" t="n">
-        <v>7057460.867698954</v>
+        <v>7057588.885967719</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3196,10 +3214,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111815505</v>
+        <v>111815499</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3212,21 +3230,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3236,10 +3254,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>457627.5754243882</v>
+        <v>457639.6605191349</v>
       </c>
       <c r="R24" t="n">
-        <v>7057503.498196352</v>
+        <v>7057508.669857187</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3308,10 +3326,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111815484</v>
+        <v>111815469</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3320,42 +3338,38 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>457499.2570064011</v>
+        <v>457736.9978307564</v>
       </c>
       <c r="R25" t="n">
-        <v>7058354.436788658</v>
+        <v>7057632.69988044</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3398,11 +3412,6 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3429,10 +3438,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111815485</v>
+        <v>111815498</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3445,38 +3454,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>457446.9368417656</v>
+        <v>457525.8934188869</v>
       </c>
       <c r="R26" t="n">
-        <v>7058136.079544679</v>
+        <v>7057587.081301005</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3519,11 +3524,6 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3550,7 +3550,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111815504</v>
+        <v>111815501</v>
       </c>
       <c r="B27" t="n">
         <v>77515</v>
@@ -3590,10 +3590,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>457647.6599703166</v>
+        <v>457501.6028477412</v>
       </c>
       <c r="R27" t="n">
-        <v>7057607.672130827</v>
+        <v>7058396.615926245</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>

--- a/artfynd/A 56568-2020.xlsx
+++ b/artfynd/A 56568-2020.xlsx
@@ -1249,10 +1249,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815490</v>
+        <v>111815486</v>
       </c>
       <c r="B7" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>457486.844484477</v>
+        <v>457490.629824138</v>
       </c>
       <c r="R7" t="n">
-        <v>7058059.55768314</v>
+        <v>7057910.64054891</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1370,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815486</v>
+        <v>111815489</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1386,16 +1386,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>457490.629824138</v>
+        <v>457851.1019836199</v>
       </c>
       <c r="R8" t="n">
-        <v>7057910.64054891</v>
+        <v>7058247.981310523</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1491,7 +1491,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815489</v>
+        <v>111815490</v>
       </c>
       <c r="B9" t="n">
         <v>56414</v>
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>457851.1019836199</v>
+        <v>457486.844484477</v>
       </c>
       <c r="R9" t="n">
-        <v>7058247.981310523</v>
+        <v>7058059.55768314</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -2981,10 +2981,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111815485</v>
+        <v>111815478</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2993,42 +2993,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>457446.9368417656</v>
+        <v>457490.7608241383</v>
       </c>
       <c r="R22" t="n">
-        <v>7058136.079544679</v>
+        <v>7057588.885967719</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3071,11 +3067,6 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3102,10 +3093,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111815478</v>
+        <v>111815485</v>
       </c>
       <c r="B23" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3114,38 +3105,42 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>457490.7608241383</v>
+        <v>457446.9368417656</v>
       </c>
       <c r="R23" t="n">
-        <v>7057588.885967719</v>
+        <v>7058136.079544679</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3188,6 +3183,11 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 56568-2020.xlsx
+++ b/artfynd/A 56568-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815471</v>
+        <v>111815470</v>
       </c>
       <c r="B2" t="n">
         <v>90087</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>457690.9089585465</v>
+        <v>457615</v>
       </c>
       <c r="R2" t="n">
-        <v>7058279.888449568</v>
+        <v>7058261</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -753,19 +753,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815495</v>
+        <v>111815472</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +794,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>457740.1420321366</v>
+        <v>457859</v>
       </c>
       <c r="R3" t="n">
-        <v>7057634.880048735</v>
+        <v>7058252</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -865,19 +855,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815505</v>
+        <v>111815476</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +896,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>457627.5754243882</v>
+        <v>457561</v>
       </c>
       <c r="R4" t="n">
-        <v>7057503.498196352</v>
+        <v>7058242</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -977,19 +957,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815484</v>
+        <v>111815499</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,38 +1002,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>457499.2570064011</v>
+        <v>457640</v>
       </c>
       <c r="R5" t="n">
-        <v>7058354.436788658</v>
+        <v>7057509</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1093,24 +1059,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1137,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815492</v>
+        <v>111815478</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,25 +1100,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1177,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>457652.3413775756</v>
+        <v>457491</v>
       </c>
       <c r="R6" t="n">
-        <v>7058423.476722932</v>
+        <v>7057589</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1210,19 +1161,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1249,7 +1190,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815486</v>
+        <v>111815482</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1293,10 +1234,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>457490.629824138</v>
+        <v>457734</v>
       </c>
       <c r="R7" t="n">
-        <v>7057910.64054891</v>
+        <v>7057882</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1326,19 +1267,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1370,10 +1301,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815489</v>
+        <v>111815484</v>
       </c>
       <c r="B8" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1386,16 +1317,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1414,10 +1345,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>457851.1019836199</v>
+        <v>457499</v>
       </c>
       <c r="R8" t="n">
-        <v>7058247.981310523</v>
+        <v>7058354</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1447,24 +1378,14 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1491,10 +1412,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815490</v>
+        <v>111815480</v>
       </c>
       <c r="B9" t="n">
-        <v>56414</v>
+        <v>90087</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1503,42 +1424,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>3298</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>457486.844484477</v>
+        <v>457651</v>
       </c>
       <c r="R9" t="n">
-        <v>7058059.55768314</v>
+        <v>7057582</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1568,24 +1485,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1612,10 +1514,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815476</v>
+        <v>111815494</v>
       </c>
       <c r="B10" t="n">
-        <v>90087</v>
+        <v>89419</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,25 +1526,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>1204</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1652,10 +1554,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>457561.367873844</v>
+        <v>457558</v>
       </c>
       <c r="R10" t="n">
-        <v>7058241.631711838</v>
+        <v>7057457</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1685,19 +1587,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1724,10 +1616,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815475</v>
+        <v>111815503</v>
       </c>
       <c r="B11" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,25 +1628,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1656,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>457550.3597693135</v>
+        <v>457482</v>
       </c>
       <c r="R11" t="n">
-        <v>7058250.221744461</v>
+        <v>7057721</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1797,19 +1689,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1836,7 +1718,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815504</v>
+        <v>111815506</v>
       </c>
       <c r="B12" t="n">
         <v>77515</v>
@@ -1876,10 +1758,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>457647.6599703166</v>
+        <v>457558</v>
       </c>
       <c r="R12" t="n">
-        <v>7057607.672130827</v>
+        <v>7057461</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1909,19 +1791,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1948,10 +1820,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815494</v>
+        <v>111815498</v>
       </c>
       <c r="B13" t="n">
-        <v>89419</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1964,21 +1836,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1988,10 +1860,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>457558.4152710024</v>
+        <v>457526</v>
       </c>
       <c r="R13" t="n">
-        <v>7057456.868363639</v>
+        <v>7057587</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2021,19 +1893,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2060,10 +1922,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111815470</v>
+        <v>111815486</v>
       </c>
       <c r="B14" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2072,38 +1934,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>457615.01761246</v>
+        <v>457491</v>
       </c>
       <c r="R14" t="n">
-        <v>7058260.908339346</v>
+        <v>7057911</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2133,19 +1999,14 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2172,10 +2033,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111815483</v>
+        <v>111815495</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2188,50 +2049,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>457815.3956129756</v>
+        <v>457740</v>
       </c>
       <c r="R15" t="n">
-        <v>7058239.570048946</v>
+        <v>7057635</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2261,19 +2106,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2300,10 +2135,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111815506</v>
+        <v>111815471</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2312,25 +2147,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2340,10 +2175,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>457558.4688635201</v>
+        <v>457691</v>
       </c>
       <c r="R16" t="n">
-        <v>7057460.867698954</v>
+        <v>7058280</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2373,19 +2208,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2412,10 +2237,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111815472</v>
+        <v>111815483</v>
       </c>
       <c r="B17" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2424,38 +2249,54 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>457859.1684109565</v>
+        <v>457815</v>
       </c>
       <c r="R17" t="n">
-        <v>7058252.317324108</v>
+        <v>7058240</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2485,19 +2326,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2524,10 +2355,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111815482</v>
+        <v>111815492</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2540,38 +2371,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>457734.0897740572</v>
+        <v>457652</v>
       </c>
       <c r="R18" t="n">
-        <v>7057881.607121572</v>
+        <v>7058423</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2601,24 +2428,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2645,7 +2457,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111815500</v>
+        <v>111815504</v>
       </c>
       <c r="B19" t="n">
         <v>77515</v>
@@ -2685,10 +2497,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>457856.1313392611</v>
+        <v>457648</v>
       </c>
       <c r="R19" t="n">
-        <v>7058258.134138036</v>
+        <v>7057608</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2718,19 +2530,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2757,10 +2559,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111815480</v>
+        <v>111815505</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2769,25 +2571,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2797,10 +2599,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>457650.8748659134</v>
+        <v>457628</v>
       </c>
       <c r="R20" t="n">
-        <v>7057581.852142417</v>
+        <v>7057503</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2830,19 +2632,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2869,10 +2661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111815503</v>
+        <v>111815490</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2885,34 +2677,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>457482.2929676044</v>
+        <v>457487</v>
       </c>
       <c r="R21" t="n">
-        <v>7057720.548935141</v>
+        <v>7058060</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2942,19 +2738,14 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2981,10 +2772,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111815478</v>
+        <v>111815500</v>
       </c>
       <c r="B22" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2993,25 +2784,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3021,10 +2812,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>457490.7608241383</v>
+        <v>457856</v>
       </c>
       <c r="R22" t="n">
-        <v>7057588.885967719</v>
+        <v>7058258</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3054,19 +2845,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3093,10 +2874,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111815485</v>
+        <v>111815469</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3105,42 +2886,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>457446.9368417656</v>
+        <v>457737</v>
       </c>
       <c r="R23" t="n">
-        <v>7058136.079544679</v>
+        <v>7057633</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3170,24 +2947,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3214,10 +2976,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111815499</v>
+        <v>111815475</v>
       </c>
       <c r="B24" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3226,25 +2988,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3254,10 +3016,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>457639.6605191349</v>
+        <v>457550</v>
       </c>
       <c r="R24" t="n">
-        <v>7057508.669857187</v>
+        <v>7058250</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3287,19 +3049,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3326,10 +3078,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111815469</v>
+        <v>111815489</v>
       </c>
       <c r="B25" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3338,38 +3090,42 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>457736.9978307564</v>
+        <v>457851</v>
       </c>
       <c r="R25" t="n">
-        <v>7057632.69988044</v>
+        <v>7058248</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3399,19 +3155,14 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3438,10 +3189,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111815498</v>
+        <v>111815485</v>
       </c>
       <c r="B26" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3454,34 +3205,38 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>457525.8934188869</v>
+        <v>457447</v>
       </c>
       <c r="R26" t="n">
-        <v>7057587.081301005</v>
+        <v>7058136</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3511,19 +3266,14 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3590,10 +3340,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>457501.6028477412</v>
+        <v>457502</v>
       </c>
       <c r="R27" t="n">
-        <v>7058396.615926245</v>
+        <v>7058397</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3623,19 +3373,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 56568-2020.xlsx
+++ b/artfynd/A 56568-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815470</v>
+        <v>111815492</v>
       </c>
       <c r="B2" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>457615</v>
+        <v>457652</v>
       </c>
       <c r="R2" t="n">
-        <v>7058261</v>
+        <v>7058423</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815472</v>
+        <v>111815506</v>
       </c>
       <c r="B3" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -794,25 +794,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>457859</v>
+        <v>457558</v>
       </c>
       <c r="R3" t="n">
-        <v>7058252</v>
+        <v>7057461</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815476</v>
+        <v>111815489</v>
       </c>
       <c r="B4" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -896,38 +896,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>457561</v>
+        <v>457851</v>
       </c>
       <c r="R4" t="n">
-        <v>7058242</v>
+        <v>7058248</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -960,6 +964,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -986,10 +995,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111815499</v>
+        <v>111815486</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1002,34 +1011,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>457640</v>
+        <v>457491</v>
       </c>
       <c r="R5" t="n">
-        <v>7057509</v>
+        <v>7057911</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1062,6 +1075,11 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1088,10 +1106,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111815478</v>
+        <v>111815505</v>
       </c>
       <c r="B6" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1100,25 +1118,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1128,10 +1146,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>457491</v>
+        <v>457628</v>
       </c>
       <c r="R6" t="n">
-        <v>7057589</v>
+        <v>7057503</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1190,10 +1208,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111815482</v>
+        <v>111815498</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1206,38 +1224,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>457734</v>
+        <v>457526</v>
       </c>
       <c r="R7" t="n">
-        <v>7057882</v>
+        <v>7057587</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1270,11 +1284,6 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1301,7 +1310,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111815484</v>
+        <v>111815483</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1334,21 +1343,33 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>457499</v>
+        <v>457815</v>
       </c>
       <c r="R8" t="n">
-        <v>7058354</v>
+        <v>7058240</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1381,11 +1402,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1412,7 +1428,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111815480</v>
+        <v>111815471</v>
       </c>
       <c r="B9" t="n">
         <v>90087</v>
@@ -1452,10 +1468,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>457651</v>
+        <v>457691</v>
       </c>
       <c r="R9" t="n">
-        <v>7057582</v>
+        <v>7058280</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1514,10 +1530,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111815494</v>
+        <v>111815470</v>
       </c>
       <c r="B10" t="n">
-        <v>89419</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1526,25 +1542,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1204</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1554,10 +1570,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>457558</v>
+        <v>457615</v>
       </c>
       <c r="R10" t="n">
-        <v>7057457</v>
+        <v>7058261</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1616,10 +1632,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111815503</v>
+        <v>111815469</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1628,25 +1644,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1656,10 +1672,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>457482</v>
+        <v>457737</v>
       </c>
       <c r="R11" t="n">
-        <v>7057721</v>
+        <v>7057633</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1718,10 +1734,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111815506</v>
+        <v>111815478</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1730,25 +1746,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1758,10 +1774,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>457558</v>
+        <v>457491</v>
       </c>
       <c r="R12" t="n">
-        <v>7057461</v>
+        <v>7057589</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1820,10 +1836,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111815498</v>
+        <v>111815490</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>56414</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1836,34 +1852,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>457526</v>
+        <v>457487</v>
       </c>
       <c r="R13" t="n">
-        <v>7057587</v>
+        <v>7058060</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1896,6 +1916,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1922,10 +1947,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111815486</v>
+        <v>111815501</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1938,38 +1963,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>457491</v>
+        <v>457502</v>
       </c>
       <c r="R14" t="n">
-        <v>7057911</v>
+        <v>7058397</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2002,11 +2023,6 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2033,10 +2049,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111815495</v>
+        <v>111815500</v>
       </c>
       <c r="B15" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2049,21 +2065,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2073,10 +2089,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>457740</v>
+        <v>457856</v>
       </c>
       <c r="R15" t="n">
-        <v>7057635</v>
+        <v>7058258</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2135,7 +2151,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111815471</v>
+        <v>111815476</v>
       </c>
       <c r="B16" t="n">
         <v>90087</v>
@@ -2175,10 +2191,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>457691</v>
+        <v>457561</v>
       </c>
       <c r="R16" t="n">
-        <v>7058280</v>
+        <v>7058242</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2237,7 +2253,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111815483</v>
+        <v>111815482</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2270,33 +2286,21 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>457815</v>
+        <v>457734</v>
       </c>
       <c r="R17" t="n">
-        <v>7058240</v>
+        <v>7057882</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2329,6 +2333,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2355,10 +2364,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111815492</v>
+        <v>111815495</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2371,21 +2380,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2395,10 +2404,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>457652</v>
+        <v>457740</v>
       </c>
       <c r="R18" t="n">
-        <v>7058423</v>
+        <v>7057635</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2559,10 +2568,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111815505</v>
+        <v>111815485</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2575,34 +2584,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>457628</v>
+        <v>457447</v>
       </c>
       <c r="R20" t="n">
-        <v>7057503</v>
+        <v>7058136</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2635,6 +2648,11 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2661,10 +2679,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111815490</v>
+        <v>111815494</v>
       </c>
       <c r="B21" t="n">
-        <v>56414</v>
+        <v>89419</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2677,38 +2695,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100049</v>
+        <v>1204</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>457487</v>
+        <v>457558</v>
       </c>
       <c r="R21" t="n">
-        <v>7058060</v>
+        <v>7057457</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2741,11 +2755,6 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2772,10 +2781,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111815500</v>
+        <v>111815480</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2784,25 +2793,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2812,10 +2821,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>457856</v>
+        <v>457651</v>
       </c>
       <c r="R22" t="n">
-        <v>7058258</v>
+        <v>7057582</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2874,7 +2883,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111815469</v>
+        <v>111815475</v>
       </c>
       <c r="B23" t="n">
         <v>90087</v>
@@ -2914,10 +2923,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>457737</v>
+        <v>457550</v>
       </c>
       <c r="R23" t="n">
-        <v>7057633</v>
+        <v>7058250</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2976,7 +2985,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111815475</v>
+        <v>111815472</v>
       </c>
       <c r="B24" t="n">
         <v>90087</v>
@@ -3016,10 +3025,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>457550</v>
+        <v>457859</v>
       </c>
       <c r="R24" t="n">
-        <v>7058250</v>
+        <v>7058252</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3078,10 +3087,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111815489</v>
+        <v>111815503</v>
       </c>
       <c r="B25" t="n">
-        <v>56414</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3094,38 +3103,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>gammalbodtjärnarna.gpx, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>457851</v>
+        <v>457482</v>
       </c>
       <c r="R25" t="n">
-        <v>7058248</v>
+        <v>7057721</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3158,11 +3163,6 @@
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3189,7 +3189,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111815485</v>
+        <v>111815484</v>
       </c>
       <c r="B26" t="n">
         <v>56398</v>
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>457447</v>
+        <v>457499</v>
       </c>
       <c r="R26" t="n">
-        <v>7058136</v>
+        <v>7058354</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3300,10 +3300,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111815501</v>
+        <v>111815499</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3316,21 +3316,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3340,10 +3340,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>457502</v>
+        <v>457640</v>
       </c>
       <c r="R27" t="n">
-        <v>7058397</v>
+        <v>7057509</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
